--- a/pabi_account_report/xlsx_template/xlsx_report_asset_estimate.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_asset_estimate.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>Org</t>
   </si>
@@ -48,27 +48,9 @@
     <t>Account Code</t>
   </si>
   <si>
-    <t>Building</t>
-  </si>
-  <si>
-    <t>Floor</t>
-  </si>
-  <si>
-    <t>Room</t>
-  </si>
-  <si>
     <t>Asset Status</t>
   </si>
   <si>
-    <t>Division</t>
-  </si>
-  <si>
-    <t>Sector</t>
-  </si>
-  <si>
-    <t>Subsector</t>
-  </si>
-  <si>
     <t>Product Category</t>
   </si>
   <si>
@@ -87,24 +69,12 @@
     <t>Asset Parent</t>
   </si>
   <si>
-    <t>Asset Type</t>
-  </si>
-  <si>
-    <t>Code (legacy)</t>
-  </si>
-  <si>
     <t>Acceptance Date</t>
   </si>
   <si>
     <t>Asset Start Date</t>
   </si>
   <si>
-    <t>Picking Date</t>
-  </si>
-  <si>
-    <t>Picking Number</t>
-  </si>
-  <si>
     <t>Budget Type</t>
   </si>
   <si>
@@ -126,52 +96,10 @@
     <t>Cost Center Name</t>
   </si>
   <si>
-    <t>Fund of Owner</t>
-  </si>
-  <si>
-    <t>Responsible Person ID</t>
-  </si>
-  <si>
-    <t>Responsible Person Name</t>
-  </si>
-  <si>
     <t>Partner Code</t>
   </si>
   <si>
     <t>Partner Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PO Number </t>
-  </si>
-  <si>
-    <t>PR Number</t>
-  </si>
-  <si>
-    <t>Purchase Method</t>
-  </si>
-  <si>
-    <t>Asset Request Code</t>
-  </si>
-  <si>
-    <t>Asset Request Name</t>
-  </si>
-  <si>
-    <t>PR Requester Code</t>
-  </si>
-  <si>
-    <t>PR Requester Name</t>
-  </si>
-  <si>
-    <t>PR Approved Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serial Number </t>
-  </si>
-  <si>
-    <t>Warranty Start Date</t>
-  </si>
-  <si>
-    <t>Warranty Expire Date</t>
   </si>
   <si>
     <t>Purchase Value
@@ -231,6 +159,9 @@
   </si>
   <si>
     <t>Asset Estimate Report</t>
+  </si>
+  <si>
+    <t>Depreciation FY2020</t>
   </si>
 </sst>
 </file>
@@ -255,7 +186,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,6 +217,12 @@
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -299,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -338,6 +275,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -657,17 +597,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="20.140625" style="1" customWidth="1"/>
@@ -675,20 +615,28 @@
     <col min="10" max="10" width="19" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.85546875" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.5703125" style="1" customWidth="1"/>
-    <col min="13" max="14" width="14.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="17" style="2" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" style="2" customWidth="1"/>
     <col min="15" max="15" width="16.85546875" style="2" customWidth="1"/>
-    <col min="16" max="18" width="16.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.85546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="19.5703125" style="1" customWidth="1"/>
     <col min="19" max="19" width="15.140625" style="1" customWidth="1"/>
     <col min="20" max="20" width="19" style="3" customWidth="1"/>
     <col min="21" max="21" width="15.140625" style="3" customWidth="1"/>
     <col min="22" max="22" width="19" style="3" customWidth="1"/>
-    <col min="23" max="27" width="11.5703125" style="3"/>
-    <col min="28" max="29" width="9.85546875" style="3" customWidth="1"/>
-    <col min="30" max="30" width="11.5703125" style="3"/>
-    <col min="31" max="31" width="16.85546875" style="3" customWidth="1"/>
-    <col min="32" max="32" width="12.7109375" style="3" customWidth="1"/>
+    <col min="23" max="23" width="19.7109375" style="3" customWidth="1"/>
+    <col min="24" max="25" width="20.85546875" style="3" customWidth="1"/>
+    <col min="26" max="26" width="23.140625" style="3" customWidth="1"/>
+    <col min="27" max="27" width="19.5703125" style="3" customWidth="1"/>
+    <col min="28" max="28" width="21.42578125" style="3" customWidth="1"/>
+    <col min="29" max="29" width="17.7109375" style="3" customWidth="1"/>
+    <col min="30" max="30" width="21.140625" style="3" customWidth="1"/>
+    <col min="31" max="31" width="18.85546875" style="3" customWidth="1"/>
+    <col min="32" max="32" width="14.5703125" style="3" customWidth="1"/>
     <col min="33" max="33" width="18.28515625" style="3" customWidth="1"/>
-    <col min="34" max="35" width="12.7109375" style="3" customWidth="1"/>
+    <col min="34" max="34" width="14.7109375" style="3" customWidth="1"/>
+    <col min="35" max="35" width="16" style="3" customWidth="1"/>
     <col min="36" max="37" width="11.5703125" style="3"/>
     <col min="38" max="38" width="15.7109375" style="3" customWidth="1"/>
     <col min="39" max="39" width="11.5703125" style="3"/>
@@ -712,15 +660,15 @@
       <c r="D1" s="1"/>
       <c r="AT1"/>
       <c r="AU1" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="AV1" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1025" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="1"/>
@@ -749,7 +697,7 @@
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="D5" s="7"/>
     </row>
@@ -759,7 +707,7 @@
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D6" s="7"/>
     </row>
@@ -767,7 +715,7 @@
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="6" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="D7" s="7"/>
     </row>
@@ -778,177 +726,111 @@
       <c r="AX8"/>
       <c r="AY8"/>
     </row>
-    <row r="9" spans="1:1025" s="11" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1025" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>4</v>
       </c>
       <c r="H9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="O9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="P9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="Q9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="R9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="S9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="T9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="P9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q9" s="10" t="s">
+      <c r="U9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="V9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="R9" s="10" t="s">
+      <c r="W9" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="S9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="T9" s="10" t="s">
+      <c r="X9" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y9" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z9" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA9" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB9" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC9" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="U9" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="V9" s="10" t="s">
+      <c r="AD9" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="W9" s="10" t="s">
+      <c r="AF9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="X9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA9" s="10" t="s">
+      <c r="AG9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="AB9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD9" s="10" t="s">
+      <c r="AH9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AE9" s="10" t="s">
+      <c r="AI9" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="AF9" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG9" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH9" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI9" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ9" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK9" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO9" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="AP9" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="AQ9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR9" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AS9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT9" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="AU9" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="AV9" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="AW9" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AX9" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="AY9" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="AZ9" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="BA9" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="BB9" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="BC9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="BD9" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="BE9" s="10" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:1025" x14ac:dyDescent="0.2">
@@ -1071,25 +953,25 @@
         <v>5</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/pabi_account_report/xlsx_template/xlsx_report_asset_estimate.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_asset_estimate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KT\PeeMay\3534\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KT\PeeMay\3388\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -186,7 +186,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,12 +217,6 @@
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFC0C0C0"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -236,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -275,9 +269,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -597,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA9" sqref="AA9:AE9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -790,31 +781,31 @@
       <c r="U9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="V9" s="17" t="s">
+      <c r="V9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="W9" s="17" t="s">
+      <c r="W9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="X9" s="17" t="s">
+      <c r="X9" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="Y9" s="17" t="s">
+      <c r="Y9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="Z9" s="17" t="s">
+      <c r="Z9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AA9" s="17" t="s">
+      <c r="AA9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AB9" s="17" t="s">
+      <c r="AB9" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AC9" s="17" t="s">
+      <c r="AC9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AD9" s="17" t="s">
+      <c r="AD9" s="10" t="s">
         <v>41</v>
       </c>
       <c r="AE9" s="10" t="s">
